--- a/gameData/shared/DragonEyrie.xlsx
+++ b/gameData/shared/DragonEyrie.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="2680" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
+    <workbookView xWindow="6560" yWindow="2160" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="crown" sheetId="53" r:id="rId1"/>
@@ -4223,8 +4223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8728,7 +8728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/gameData/shared/DragonEyrie.xlsx
+++ b/gameData/shared/DragonEyrie.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="2160" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
+    <workbookView xWindow="2120" yWindow="2580" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="crown" sheetId="53" r:id="rId1"/>
@@ -17,7 +17,11 @@
     <sheet name="dragonAttribute" sheetId="57" r:id="rId8"/>
     <sheet name="dragons" sheetId="60" r:id="rId9"/>
     <sheet name="dragonSkill" sheetId="58" r:id="rId10"/>
+    <sheet name="fightFix" sheetId="61" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crown!$A$1:$D$21</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
@@ -28,6 +32,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
@@ -39,6 +44,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
@@ -50,6 +56,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
@@ -61,6 +68,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -75,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
   <si>
     <t>INT_strength</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -450,6 +458,22 @@
   </si>
   <si>
     <t>INT_maxLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1951,7 +1975,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1970,6 +1994,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1314">
@@ -3361,6 +3391,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="normal"/>
+      <sheetName val="special"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4223,7 +4268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -4823,6 +4868,202 @@
     </row>
     <row r="100" spans="1:1" ht="20" customHeight="1">
       <c r="A100" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="17" style="8" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="8" customWidth="1"/>
+    <col min="4" max="10" width="17" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="20.6640625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/DragonEyrie.xlsx
+++ b/gameData/shared/DragonEyrie.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="2580" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="10"/>
+    <workbookView xWindow="9840" yWindow="2080" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="crown" sheetId="53" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="dragonSkill" sheetId="58" r:id="rId10"/>
     <sheet name="fightFix" sheetId="61" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crown!$A$1:$D$21</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
@@ -83,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="109">
   <si>
     <t>INT_strength</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -474,6 +471,14 @@
   </si>
   <si>
     <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_perLevelLeadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_initLeadership</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +660,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1314">
+  <cellStyleXfs count="1320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -670,6 +675,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2002,7 +2013,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1314">
+  <cellStyles count="1320">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2662,6 +2673,9 @@
     <cellStyle name="超链接" xfId="1308" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1310" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1318" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3314,6 +3328,9 @@
     <cellStyle name="访问过的超链接" xfId="1309" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1311" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1319" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3389,21 +3406,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="normal"/>
-      <sheetName val="special"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4885,7 +4887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -8967,10 +8969,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8978,15 +8980,15 @@
     <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6640625" style="2"/>
-    <col min="7" max="7" width="15.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="46.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="20.6640625" style="2"/>
+    <col min="4" max="5" width="17.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" style="2"/>
+    <col min="8" max="9" width="15.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="46.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -9000,22 +9002,28 @@
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1">
+    <row r="2" spans="1:11" ht="20" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -9040,8 +9048,14 @@
       <c r="H2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -9049,25 +9063,31 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>128</v>
       </c>
       <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>6</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>20</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -9081,22 +9101,28 @@
         <v>256</v>
       </c>
       <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>60</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
+        <v>60</v>
+      </c>
+      <c r="J4" s="2">
         <v>180</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -9110,22 +9136,28 @@
         <v>512</v>
       </c>
       <c r="E5" s="2">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2">
         <v>6</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>18</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>120</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
+        <v>120</v>
+      </c>
+      <c r="J5" s="2">
         <v>360</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1">
+    <row r="6" spans="1:11" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -9139,22 +9171,28 @@
         <v>1024</v>
       </c>
       <c r="E6" s="2">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>200</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
+        <v>200</v>
+      </c>
+      <c r="J6" s="2">
         <v>580</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
+    <row r="7" spans="1:11" ht="20" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -9168,621 +9206,707 @@
         <v>5120</v>
       </c>
       <c r="E7" s="2">
+        <v>160</v>
+      </c>
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>30</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>300</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>300</v>
+      </c>
+      <c r="J7" s="2">
         <v>880</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="1:6" ht="20" customHeight="1">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" ht="20" customHeight="1">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" ht="20" customHeight="1">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6" ht="20" customHeight="1">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="1:6" ht="20" customHeight="1">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="1:6" ht="20" customHeight="1">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="1:6" ht="20" customHeight="1">
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="1:6" ht="20" customHeight="1">
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:6" ht="20" customHeight="1">
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="1:6" ht="20" customHeight="1">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="1:6" ht="20" customHeight="1">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="1:6" ht="20" customHeight="1">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" ht="20" customHeight="1">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="1:6" ht="20" customHeight="1">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="1:6" ht="20" customHeight="1">
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="1:6" ht="20" customHeight="1">
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="1:6" ht="20" customHeight="1">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="1:6" ht="20" customHeight="1">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" ht="20" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" ht="20" customHeight="1">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" ht="20" customHeight="1">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="1:6" ht="20" customHeight="1">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" ht="20" customHeight="1">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="1:6" ht="20" customHeight="1">
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" ht="20" customHeight="1">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="1:6" ht="20" customHeight="1">
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" ht="20" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" ht="20" customHeight="1">
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" ht="20" customHeight="1">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" ht="20" customHeight="1">
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" ht="20" customHeight="1">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" ht="20" customHeight="1">
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" ht="20" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="1:6" ht="20" customHeight="1">
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" ht="20" customHeight="1">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="1:6" ht="20" customHeight="1">
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" ht="20" customHeight="1">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="1:6" ht="20" customHeight="1">
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" ht="20" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" ht="20" customHeight="1">
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" ht="20" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="1:6" ht="20" customHeight="1">
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" ht="20" customHeight="1">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="1:6" ht="20" customHeight="1">
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" ht="20" customHeight="1">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="1:6" ht="20" customHeight="1">
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" ht="20" customHeight="1">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6" ht="20" customHeight="1">
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" ht="20" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6" ht="20" customHeight="1">
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" ht="20" customHeight="1">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="1:6" ht="20" customHeight="1">
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" ht="20" customHeight="1">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="1:6" ht="20" customHeight="1">
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" ht="20" customHeight="1">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="1:6" ht="20" customHeight="1">
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" ht="20" customHeight="1">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" ht="20" customHeight="1">
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" ht="20" customHeight="1">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" ht="20" customHeight="1">
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7" ht="20" customHeight="1">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" ht="20" customHeight="1">
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7" ht="20" customHeight="1">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" ht="20" customHeight="1">
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7" ht="20" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" ht="20" customHeight="1">
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7" ht="20" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" ht="20" customHeight="1">
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" ht="20" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" ht="20" customHeight="1">
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" ht="20" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" ht="20" customHeight="1">
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" ht="20" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" ht="20" customHeight="1">
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" ht="20" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6" ht="20" customHeight="1">
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" ht="20" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6" ht="20" customHeight="1">
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" ht="20" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" ht="20" customHeight="1">
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" ht="20" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="1:6" ht="20" customHeight="1">
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" ht="20" customHeight="1">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="1:6" ht="20" customHeight="1">
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" ht="20" customHeight="1">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="1:6" ht="20" customHeight="1">
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7" ht="20" customHeight="1">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="1:6" ht="20" customHeight="1">
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" ht="20" customHeight="1">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" ht="20" customHeight="1">
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" ht="20" customHeight="1">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="1:6" ht="20" customHeight="1">
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" ht="20" customHeight="1">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -9801,7 +9925,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/shared/DragonEyrie.xlsx
+++ b/gameData/shared/DragonEyrie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="2080" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="7"/>
+    <workbookView xWindow="8500" yWindow="2220" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="crown" sheetId="53" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
   <si>
     <t>INT_strength</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>INT_IntiLevel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_energyCostPerLevel</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -3795,10 +3791,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -3809,7 +3805,7 @@
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -3823,7 +3819,7 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
@@ -3837,7 +3833,7 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
@@ -3851,7 +3847,7 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2">
         <v>160</v>
@@ -3865,7 +3861,7 @@
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2">
         <v>200</v>
@@ -3879,7 +3875,7 @@
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -3893,7 +3889,7 @@
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>800</v>
@@ -3907,7 +3903,7 @@
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
@@ -3921,7 +3917,7 @@
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2">
         <v>1200</v>
@@ -3935,7 +3931,7 @@
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2">
         <v>1600</v>
@@ -3949,7 +3945,7 @@
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
@@ -3963,7 +3959,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2">
         <v>2400</v>
@@ -3977,7 +3973,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2">
         <v>2800</v>
@@ -3991,7 +3987,7 @@
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2">
         <v>3200</v>
@@ -4005,7 +4001,7 @@
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2">
         <v>4000</v>
@@ -4019,7 +4015,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2">
         <v>4800</v>
@@ -4033,7 +4029,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2">
         <v>5600</v>
@@ -4047,7 +4043,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2">
         <v>6400</v>
@@ -4061,7 +4057,7 @@
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2">
         <v>7200</v>
@@ -4075,7 +4071,7 @@
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2">
         <v>8000</v>
@@ -4268,10 +4264,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4280,13 +4276,12 @@
     <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="2"/>
-    <col min="6" max="6" width="22.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="20.6640625" style="2"/>
+    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -4297,19 +4292,16 @@
         <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1">
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -4323,16 +4315,13 @@
         <v>50</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F2" s="2">
-        <v>120</v>
-      </c>
-      <c r="G2" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -4346,16 +4335,13 @@
         <v>30</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="F3" s="2">
-        <v>360</v>
-      </c>
-      <c r="G3" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -4369,16 +4355,13 @@
         <v>50</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F4" s="2">
-        <v>500</v>
-      </c>
-      <c r="G4" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -4392,16 +4375,13 @@
         <v>30</v>
       </c>
       <c r="E5" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -4415,16 +4395,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -4438,16 +4415,13 @@
         <v>30</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -4461,16 +4435,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>1200</v>
       </c>
       <c r="F8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="G8" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -4484,16 +4455,13 @@
         <v>30</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>2400</v>
       </c>
       <c r="F9" s="2">
-        <v>2400</v>
-      </c>
-      <c r="G9" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -4507,16 +4475,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>2400</v>
       </c>
       <c r="F10" s="2">
-        <v>2400</v>
-      </c>
-      <c r="G10" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -4530,16 +4495,13 @@
         <v>20</v>
       </c>
       <c r="E11" s="2">
-        <v>10</v>
+        <v>3600</v>
       </c>
       <c r="F11" s="2">
-        <v>3600</v>
-      </c>
-      <c r="G11" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -4553,16 +4515,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="2">
-        <v>10</v>
+        <v>7200</v>
       </c>
       <c r="F12" s="2">
-        <v>7200</v>
-      </c>
-      <c r="G12" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -4576,16 +4535,13 @@
         <v>20</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>7200</v>
       </c>
       <c r="F13" s="2">
-        <v>7200</v>
-      </c>
-      <c r="G13" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -4599,16 +4555,13 @@
         <v>20</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>9600</v>
       </c>
       <c r="F14" s="2">
-        <v>9600</v>
-      </c>
-      <c r="G14" s="2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -4622,12 +4575,9 @@
         <v>20</v>
       </c>
       <c r="E15" s="2">
-        <v>10</v>
+        <v>9600</v>
       </c>
       <c r="F15" s="2">
-        <v>9600</v>
-      </c>
-      <c r="G15" s="2">
         <v>0.01</v>
       </c>
     </row>
@@ -4901,16 +4851,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5095,10 +5045,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -5109,7 +5059,7 @@
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -5123,7 +5073,7 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
@@ -5137,7 +5087,7 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
@@ -5151,7 +5101,7 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2">
         <v>160</v>
@@ -5165,7 +5115,7 @@
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2">
         <v>200</v>
@@ -5179,7 +5129,7 @@
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -5193,7 +5143,7 @@
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2">
         <v>800</v>
@@ -5207,7 +5157,7 @@
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
@@ -5221,7 +5171,7 @@
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2">
         <v>1200</v>
@@ -5235,7 +5185,7 @@
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2">
         <v>1600</v>
@@ -5249,7 +5199,7 @@
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
@@ -5263,7 +5213,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2">
         <v>2400</v>
@@ -5277,7 +5227,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2">
         <v>2800</v>
@@ -5291,7 +5241,7 @@
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2">
         <v>3200</v>
@@ -5305,7 +5255,7 @@
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2">
         <v>4000</v>
@@ -5319,7 +5269,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2">
         <v>4800</v>
@@ -5333,7 +5283,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2">
         <v>5600</v>
@@ -5347,7 +5297,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2">
         <v>6400</v>
@@ -5361,7 +5311,7 @@
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2">
         <v>7200</v>
@@ -5375,7 +5325,7 @@
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2">
         <v>8000</v>
@@ -5685,10 +5635,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -5699,7 +5649,7 @@
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2">
         <v>40</v>
@@ -5713,7 +5663,7 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2">
         <v>40</v>
@@ -5727,7 +5677,7 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2">
         <v>120</v>
@@ -5741,7 +5691,7 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2">
         <v>160</v>
@@ -5755,7 +5705,7 @@
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2">
         <v>200</v>
@@ -5769,7 +5719,7 @@
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2">
         <v>600</v>
@@ -5783,7 +5733,7 @@
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2">
         <v>800</v>
@@ -5797,7 +5747,7 @@
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2">
         <v>1000</v>
@@ -5811,7 +5761,7 @@
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2">
         <v>1200</v>
@@ -5825,7 +5775,7 @@
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2">
         <v>1600</v>
@@ -5839,7 +5789,7 @@
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2">
         <v>2000</v>
@@ -5853,7 +5803,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2">
         <v>2400</v>
@@ -5867,7 +5817,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2">
         <v>2800</v>
@@ -5881,7 +5831,7 @@
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2">
         <v>3200</v>
@@ -5895,7 +5845,7 @@
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2">
         <v>4000</v>
@@ -5909,7 +5859,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="2">
         <v>4800</v>
@@ -5923,7 +5873,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="2">
         <v>5600</v>
@@ -5937,7 +5887,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2">
         <v>6400</v>
@@ -5951,7 +5901,7 @@
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2">
         <v>7200</v>
@@ -5965,7 +5915,7 @@
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="2">
         <v>8000</v>
@@ -6435,10 +6385,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -6449,7 +6399,7 @@
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
@@ -6463,7 +6413,7 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2">
         <v>160</v>
@@ -6477,7 +6427,7 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -6491,7 +6441,7 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -6505,7 +6455,7 @@
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2">
         <v>800</v>
@@ -6519,7 +6469,7 @@
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -6533,7 +6483,7 @@
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>1200</v>
@@ -6547,7 +6497,7 @@
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2">
         <v>1600</v>
@@ -6561,7 +6511,7 @@
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2">
         <v>2000</v>
@@ -6575,7 +6525,7 @@
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2">
         <v>2400</v>
@@ -6589,7 +6539,7 @@
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2">
         <v>2800</v>
@@ -6603,7 +6553,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2">
         <v>3200</v>
@@ -6617,7 +6567,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2">
         <v>4000</v>
@@ -6631,7 +6581,7 @@
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2">
         <v>4800</v>
@@ -6645,7 +6595,7 @@
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2">
         <v>5600</v>
@@ -6659,7 +6609,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2">
         <v>6400</v>
@@ -6673,7 +6623,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2">
         <v>7200</v>
@@ -6687,7 +6637,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2">
         <v>8000</v>
@@ -6999,10 +6949,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -7013,7 +6963,7 @@
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
@@ -7027,7 +6977,7 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2">
         <v>160</v>
@@ -7041,7 +6991,7 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -7055,7 +7005,7 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -7069,7 +7019,7 @@
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2">
         <v>800</v>
@@ -7083,7 +7033,7 @@
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -7097,7 +7047,7 @@
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>1200</v>
@@ -7111,7 +7061,7 @@
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2">
         <v>1600</v>
@@ -7125,7 +7075,7 @@
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2">
         <v>2000</v>
@@ -7139,7 +7089,7 @@
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2">
         <v>2400</v>
@@ -7153,7 +7103,7 @@
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2">
         <v>2800</v>
@@ -7167,7 +7117,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2">
         <v>3200</v>
@@ -7181,7 +7131,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2">
         <v>4000</v>
@@ -7195,7 +7145,7 @@
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2">
         <v>4800</v>
@@ -7209,7 +7159,7 @@
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2">
         <v>5600</v>
@@ -7223,7 +7173,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2">
         <v>6400</v>
@@ -7237,7 +7187,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2">
         <v>7200</v>
@@ -7251,7 +7201,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2">
         <v>8000</v>
@@ -7561,10 +7511,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -7575,7 +7525,7 @@
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2">
         <v>120</v>
@@ -7589,7 +7539,7 @@
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2">
         <v>160</v>
@@ -7603,7 +7553,7 @@
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2">
         <v>200</v>
@@ -7617,7 +7567,7 @@
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2">
         <v>600</v>
@@ -7631,7 +7581,7 @@
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2">
         <v>800</v>
@@ -7645,7 +7595,7 @@
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
         <v>1000</v>
@@ -7659,7 +7609,7 @@
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
         <v>1200</v>
@@ -7673,7 +7623,7 @@
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2">
         <v>1600</v>
@@ -7687,7 +7637,7 @@
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2">
         <v>2000</v>
@@ -7701,7 +7651,7 @@
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2">
         <v>2400</v>
@@ -7715,7 +7665,7 @@
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2">
         <v>2800</v>
@@ -7729,7 +7679,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2">
         <v>3200</v>
@@ -7743,7 +7693,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2">
         <v>4000</v>
@@ -7757,7 +7707,7 @@
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2">
         <v>4800</v>
@@ -7771,7 +7721,7 @@
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2">
         <v>5600</v>
@@ -7785,7 +7735,7 @@
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2">
         <v>6400</v>
@@ -7799,7 +7749,7 @@
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="2">
         <v>7200</v>
@@ -7813,7 +7763,7 @@
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2">
         <v>8000</v>
@@ -8971,8 +8921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9002,7 +8952,7 @@
         <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -9011,16 +8961,16 @@
         <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20" customHeight="1">
@@ -9119,7 +9069,7 @@
         <v>180</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20" customHeight="1">
@@ -9154,7 +9104,7 @@
         <v>360</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20" customHeight="1">
@@ -9189,7 +9139,7 @@
         <v>580</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20" customHeight="1">
@@ -9224,7 +9174,7 @@
         <v>880</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -9944,39 +9894,39 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -10008,7 +9958,7 @@
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
@@ -10040,7 +9990,7 @@
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
